--- a/Summaries/SP1/Mallorca_Ath Madrid_adv.xlsx
+++ b/Summaries/SP1/Mallorca_Ath Madrid_adv.xlsx
@@ -508,151 +508,154 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>1161</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>1135</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1687</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>1147</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>2102</t>
+    <t>472</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>2117</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>1178</t>
-  </si>
-  <si>
-    <t>1275</t>
-  </si>
-  <si>
-    <t>1907</t>
+    <t>196</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1920</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>1698</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1529</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2194</t>
+    <t>513</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2209</t>
   </si>
   <si>
     <t>Samu Costa</t>
   </si>
   <si>
+    <t>Clément Lenglet</t>
+  </si>
+  <si>
     <t>Manu Morlanes</t>
   </si>
   <si>
     <t>Koke</t>
   </si>
   <si>
-    <t>Clément Lenglet</t>
+    <t>Reinildo Mandava</t>
   </si>
   <si>
     <t>Chiquinho</t>
@@ -682,9 +685,6 @@
     <t>Robin Le Normand</t>
   </si>
   <si>
-    <t>Reinildo Mandava</t>
-  </si>
-  <si>
     <t>Valery Fernández</t>
   </si>
   <si>
@@ -709,6 +709,9 @@
     <t>Pablo Barrios</t>
   </si>
   <si>
+    <t>Ángel Correa</t>
+  </si>
+  <si>
     <t>Conor Gallagher</t>
   </si>
   <si>
@@ -754,9 +757,6 @@
     <t>César Azpilicueta</t>
   </si>
   <si>
-    <t>Ángel Correa</t>
-  </si>
-  <si>
     <t>Thomas Lemar</t>
   </si>
   <si>
@@ -781,10 +781,13 @@
     <t>pt POR</t>
   </si>
   <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
     <t>es ESP</t>
   </si>
   <si>
-    <t>fr FRA</t>
+    <t>mz MOZ</t>
   </si>
   <si>
     <t>ca CAN</t>
@@ -799,9 +802,6 @@
     <t>ar ARG</t>
   </si>
   <si>
-    <t>mz MOZ</t>
-  </si>
-  <si>
     <t>xk KVX</t>
   </si>
   <si>
@@ -835,15 +835,15 @@
     <t>DF</t>
   </si>
   <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
     <t>FW,MF</t>
   </si>
   <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
     <t>MF,DF</t>
   </si>
   <si>
@@ -856,157 +856,157 @@
     <t>es La Liga</t>
   </si>
   <si>
-    <t>23-348</t>
-  </si>
-  <si>
-    <t>25-302</t>
-  </si>
-  <si>
-    <t>32-306</t>
-  </si>
-  <si>
-    <t>29-145</t>
-  </si>
-  <si>
-    <t>24-278</t>
-  </si>
-  <si>
-    <t>25-030</t>
-  </si>
-  <si>
-    <t>29-206</t>
-  </si>
-  <si>
-    <t>31-281</t>
-  </si>
-  <si>
-    <t>32-080</t>
-  </si>
-  <si>
-    <t>31-338</t>
-  </si>
-  <si>
-    <t>30-169</t>
-  </si>
-  <si>
-    <t>29-356</t>
-  </si>
-  <si>
-    <t>27-364</t>
-  </si>
-  <si>
-    <t>30-293</t>
-  </si>
-  <si>
-    <t>24-352</t>
-  </si>
-  <si>
-    <t>27-120</t>
-  </si>
-  <si>
-    <t>30-199</t>
-  </si>
-  <si>
-    <t>22-211</t>
-  </si>
-  <si>
-    <t>36-156</t>
-  </si>
-  <si>
-    <t>28-334</t>
-  </si>
-  <si>
-    <t>24-283</t>
-  </si>
-  <si>
-    <t>21-147</t>
-  </si>
-  <si>
-    <t>24-277</t>
-  </si>
-  <si>
-    <t>33-233</t>
-  </si>
-  <si>
-    <t>24-322</t>
-  </si>
-  <si>
-    <t>29-294</t>
-  </si>
-  <si>
-    <t>21-327</t>
-  </si>
-  <si>
-    <t>29-365</t>
-  </si>
-  <si>
-    <t>30-323</t>
-  </si>
-  <si>
-    <t>18-313</t>
-  </si>
-  <si>
-    <t>27-217</t>
-  </si>
-  <si>
-    <t>26-354</t>
-  </si>
-  <si>
-    <t>21-186</t>
-  </si>
-  <si>
-    <t>33-032</t>
-  </si>
-  <si>
-    <t>24-126</t>
-  </si>
-  <si>
-    <t>27-313</t>
-  </si>
-  <si>
-    <t>35-073</t>
-  </si>
-  <si>
-    <t>29-245</t>
-  </si>
-  <si>
-    <t>28-363</t>
-  </si>
-  <si>
-    <t>29-284</t>
-  </si>
-  <si>
-    <t>26-217</t>
-  </si>
-  <si>
-    <t>31-307</t>
-  </si>
-  <si>
-    <t>24-221</t>
-  </si>
-  <si>
-    <t>28-340</t>
-  </si>
-  <si>
-    <t>35-302</t>
+    <t>23-355</t>
+  </si>
+  <si>
+    <t>29-152</t>
+  </si>
+  <si>
+    <t>25-309</t>
+  </si>
+  <si>
+    <t>32-313</t>
+  </si>
+  <si>
+    <t>30-300</t>
+  </si>
+  <si>
+    <t>24-285</t>
+  </si>
+  <si>
+    <t>25-037</t>
+  </si>
+  <si>
+    <t>29-213</t>
+  </si>
+  <si>
+    <t>31-288</t>
+  </si>
+  <si>
+    <t>32-087</t>
+  </si>
+  <si>
+    <t>31-345</t>
+  </si>
+  <si>
+    <t>30-176</t>
+  </si>
+  <si>
+    <t>29-363</t>
+  </si>
+  <si>
+    <t>28-005</t>
+  </si>
+  <si>
+    <t>24-359</t>
+  </si>
+  <si>
+    <t>27-127</t>
+  </si>
+  <si>
+    <t>30-206</t>
+  </si>
+  <si>
+    <t>22-218</t>
+  </si>
+  <si>
+    <t>36-163</t>
+  </si>
+  <si>
+    <t>28-341</t>
+  </si>
+  <si>
+    <t>24-290</t>
+  </si>
+  <si>
+    <t>21-154</t>
+  </si>
+  <si>
+    <t>29-252</t>
+  </si>
+  <si>
+    <t>24-284</t>
+  </si>
+  <si>
+    <t>33-240</t>
+  </si>
+  <si>
+    <t>24-329</t>
+  </si>
+  <si>
+    <t>29-301</t>
+  </si>
+  <si>
+    <t>21-334</t>
+  </si>
+  <si>
+    <t>30-006</t>
+  </si>
+  <si>
+    <t>30-330</t>
+  </si>
+  <si>
+    <t>18-320</t>
+  </si>
+  <si>
+    <t>27-224</t>
+  </si>
+  <si>
+    <t>26-361</t>
+  </si>
+  <si>
+    <t>21-193</t>
+  </si>
+  <si>
+    <t>33-039</t>
+  </si>
+  <si>
+    <t>24-133</t>
+  </si>
+  <si>
+    <t>27-320</t>
+  </si>
+  <si>
+    <t>35-080</t>
+  </si>
+  <si>
+    <t>29-004</t>
+  </si>
+  <si>
+    <t>29-291</t>
+  </si>
+  <si>
+    <t>26-224</t>
+  </si>
+  <si>
+    <t>31-314</t>
+  </si>
+  <si>
+    <t>24-228</t>
+  </si>
+  <si>
+    <t>28-347</t>
+  </si>
+  <si>
+    <t>35-309</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
+    <t>1995</t>
+  </si>
+  <si>
     <t>1999</t>
   </si>
   <si>
     <t>1992</t>
   </si>
   <si>
-    <t>1995</t>
+    <t>1994</t>
   </si>
   <si>
     <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
   </si>
   <si>
     <t>1996</t>
@@ -3794,7 +3794,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="n">
-        <v>482.0</v>
+        <v>483.0</v>
       </c>
       <c r="C2" t="s">
         <v>209</v>
@@ -3818,10 +3818,10 @@
         <v>325</v>
       </c>
       <c r="J2" t="n">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L2" t="n">
         <v>1.0</v>
@@ -3830,19 +3830,19 @@
         <v>1.0</v>
       </c>
       <c r="N2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="P2" t="n">
         <v>1.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="S2" t="n">
         <v>15.0</v>
@@ -3857,16 +3857,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="X2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y2" t="n">
         <v>12.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>68.4</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="3">
@@ -3874,7 +3874,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="n">
-        <v>1436.0</v>
+        <v>1185.0</v>
       </c>
       <c r="C3" t="s">
         <v>210</v>
@@ -3883,10 +3883,10 @@
         <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>279</v>
@@ -3898,34 +3898,34 @@
         <v>326</v>
       </c>
       <c r="J3" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>6.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15.0</v>
-      </c>
       <c r="S3" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -3937,16 +3937,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="X3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>38.1</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="4">
@@ -3954,19 +3954,19 @@
         <v>166</v>
       </c>
       <c r="B4" t="n">
-        <v>1098.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C4" t="s">
         <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
         <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
         <v>279</v>
@@ -3978,7 +3978,7 @@
         <v>327</v>
       </c>
       <c r="J4" t="n">
-        <v>9.7</v>
+        <v>7.7</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3990,22 +3990,22 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -4014,19 +4014,19 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>62.0</v>
+        <v>45.0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>50.0</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="5">
@@ -4034,7 +4034,7 @@
         <v>167</v>
       </c>
       <c r="B5" t="n">
-        <v>1179.0</v>
+        <v>1103.0</v>
       </c>
       <c r="C5" t="s">
         <v>212</v>
@@ -4043,7 +4043,7 @@
         <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>97</v>
@@ -4058,7 +4058,7 @@
         <v>328</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>10.7</v>
       </c>
       <c r="K5" t="n">
         <v>3.0</v>
@@ -4070,22 +4070,22 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>7.0</v>
       </c>
-      <c r="O5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R5" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -4094,19 +4094,19 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W5" t="n">
-        <v>11.0</v>
+        <v>66.0</v>
       </c>
       <c r="X5" t="n">
         <v>6.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>46.2</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
@@ -4114,19 +4114,19 @@
         <v>168</v>
       </c>
       <c r="B6" t="n">
-        <v>432.0</v>
+        <v>1286.0</v>
       </c>
       <c r="C6" t="s">
         <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
         <v>279</v>
@@ -4135,58 +4135,58 @@
         <v>284</v>
       </c>
       <c r="I6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="K6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.0</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="X6" t="n">
         <v>4.0</v>
       </c>
-      <c r="O6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="7">
@@ -4194,16 +4194,16 @@
         <v>169</v>
       </c>
       <c r="B7" t="n">
-        <v>470.0</v>
+        <v>433.0</v>
       </c>
       <c r="C7" t="s">
         <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
@@ -4215,10 +4215,10 @@
         <v>285</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.0</v>
@@ -4230,43 +4230,43 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="O7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.0</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>4.0</v>
       </c>
-      <c r="S7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Z7" t="n">
-        <v>66.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -4274,16 +4274,16 @@
         <v>170</v>
       </c>
       <c r="B8" t="n">
-        <v>1153.0</v>
+        <v>471.0</v>
       </c>
       <c r="C8" t="s">
         <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
@@ -4295,10 +4295,10 @@
         <v>286</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J8" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.0</v>
@@ -4310,22 +4310,22 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -4337,16 +4337,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.9</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="9">
@@ -4354,7 +4354,7 @@
         <v>171</v>
       </c>
       <c r="B9" t="n">
-        <v>1324.0</v>
+        <v>1159.0</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -4363,7 +4363,7 @@
         <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>94</v>
@@ -4375,10 +4375,10 @@
         <v>287</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J9" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.0</v>
@@ -4390,22 +4390,22 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
@@ -4417,16 +4417,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="X9" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>47.1</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="10">
@@ -4434,7 +4434,7 @@
         <v>172</v>
       </c>
       <c r="B10" t="n">
-        <v>1420.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C10" t="s">
         <v>217</v>
@@ -4443,7 +4443,7 @@
         <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>94</v>
@@ -4455,10 +4455,10 @@
         <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J10" t="n">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="K10" t="n">
         <v>2.0</v>
@@ -4470,43 +4470,43 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="O10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="X10" t="n">
         <v>8.0</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Y10" t="n">
         <v>9.0</v>
       </c>
-      <c r="S10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>62.5</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="11">
@@ -4514,16 +4514,16 @@
         <v>173</v>
       </c>
       <c r="B11" t="n">
-        <v>1710.0</v>
+        <v>1430.0</v>
       </c>
       <c r="C11" t="s">
         <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
@@ -4535,10 +4535,10 @@
         <v>289</v>
       </c>
       <c r="I11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>10.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.0</v>
@@ -4550,22 +4550,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="O11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -4577,16 +4577,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.0</v>
+        <v>65.0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>39.1</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="12">
@@ -4594,19 +4594,19 @@
         <v>174</v>
       </c>
       <c r="B12" t="n">
-        <v>538.0</v>
+        <v>1721.0</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
         <v>279</v>
@@ -4615,10 +4615,10 @@
         <v>290</v>
       </c>
       <c r="I12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J12" t="n">
-        <v>5.9</v>
+        <v>2.0</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -4633,19 +4633,19 @@
         <v>3.0</v>
       </c>
       <c r="O12" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -4657,16 +4657,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
       <c r="X12" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>50.0</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="13">
@@ -4674,16 +4674,16 @@
         <v>175</v>
       </c>
       <c r="B13" t="n">
-        <v>752.0</v>
+        <v>540.0</v>
       </c>
       <c r="C13" t="s">
         <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -4695,10 +4695,10 @@
         <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.0</v>
@@ -4710,43 +4710,43 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="O13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.0</v>
       </c>
-      <c r="P13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="X13" t="n">
         <v>3.0</v>
       </c>
-      <c r="S13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>55.6</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="14">
@@ -4754,13 +4754,13 @@
         <v>176</v>
       </c>
       <c r="B14" t="n">
-        <v>1165.0</v>
+        <v>756.0</v>
       </c>
       <c r="C14" t="s">
         <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
         <v>272</v>
@@ -4775,10 +4775,10 @@
         <v>292</v>
       </c>
       <c r="I14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J14" t="n">
-        <v>7.0</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.0</v>
@@ -4790,43 +4790,43 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
         <v>14.0</v>
       </c>
-      <c r="O14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>23.0</v>
-      </c>
       <c r="X14" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>61.1</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="15">
@@ -4834,13 +4834,13 @@
         <v>177</v>
       </c>
       <c r="B15" t="n">
-        <v>1278.0</v>
+        <v>1171.0</v>
       </c>
       <c r="C15" t="s">
         <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
         <v>272</v>
@@ -4855,10 +4855,10 @@
         <v>293</v>
       </c>
       <c r="I15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J15" t="n">
-        <v>5.7</v>
+        <v>7.0</v>
       </c>
       <c r="K15" t="n">
         <v>2.0</v>
@@ -4870,43 +4870,43 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>8.0</v>
       </c>
-      <c r="O15" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>7.0</v>
       </c>
-      <c r="T15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Z15" t="n">
-        <v>37.5</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="16">
@@ -4914,16 +4914,16 @@
         <v>178</v>
       </c>
       <c r="B16" t="n">
-        <v>711.0</v>
+        <v>715.0</v>
       </c>
       <c r="C16" t="s">
         <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -4935,7 +4935,7 @@
         <v>294</v>
       </c>
       <c r="I16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J16" t="n">
         <v>1.4</v>
@@ -4994,13 +4994,13 @@
         <v>179</v>
       </c>
       <c r="B17" t="n">
-        <v>1249.0</v>
+        <v>1257.0</v>
       </c>
       <c r="C17" t="s">
         <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E17" t="s">
         <v>272</v>
@@ -5018,7 +5018,7 @@
         <v>332</v>
       </c>
       <c r="J17" t="n">
-        <v>8.4</v>
+        <v>9.2</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
@@ -5033,19 +5033,19 @@
         <v>5.0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="P17" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -5057,16 +5057,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y17" t="n">
         <v>6.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>45.5</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="18">
@@ -5074,7 +5074,7 @@
         <v>180</v>
       </c>
       <c r="B18" t="n">
-        <v>1467.0</v>
+        <v>1477.0</v>
       </c>
       <c r="C18" t="s">
         <v>225</v>
@@ -5095,10 +5095,10 @@
         <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
@@ -5110,13 +5110,13 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="O18" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q18" t="n">
         <v>8.0</v>
@@ -5137,16 +5137,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="X18" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>56.8</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="19">
@@ -5154,16 +5154,16 @@
         <v>181</v>
       </c>
       <c r="B19" t="n">
-        <v>1489.0</v>
+        <v>1499.0</v>
       </c>
       <c r="C19" t="s">
         <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -5178,7 +5178,7 @@
         <v>333</v>
       </c>
       <c r="J19" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
@@ -5190,22 +5190,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O19" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="R19" t="n">
         <v>10.0</v>
       </c>
       <c r="S19" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -5217,7 +5217,7 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="X19" t="n">
         <v>3.0</v>
@@ -5234,16 +5234,16 @@
         <v>182</v>
       </c>
       <c r="B20" t="n">
-        <v>1779.0</v>
+        <v>1790.0</v>
       </c>
       <c r="C20" t="s">
         <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -5258,7 +5258,7 @@
         <v>334</v>
       </c>
       <c r="J20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5270,22 +5270,22 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O20" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="P20" t="n">
         <v>1.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="R20" t="n">
         <v>3.0</v>
       </c>
       <c r="S20" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -5297,7 +5297,7 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="X20" t="n">
         <v>6.0</v>
@@ -5314,7 +5314,7 @@
         <v>183</v>
       </c>
       <c r="B21" t="n">
-        <v>2129.0</v>
+        <v>2144.0</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -5335,10 +5335,10 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J21" t="n">
-        <v>7.8</v>
+        <v>8.8</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5365,7 +5365,7 @@
         <v>4.0</v>
       </c>
       <c r="S21" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -5380,13 +5380,13 @@
         <v>19.0</v>
       </c>
       <c r="X21" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y21" t="n">
         <v>6.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>60.0</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="22">
@@ -5400,10 +5400,10 @@
         <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
         <v>97</v>
@@ -5418,7 +5418,7 @@
         <v>325</v>
       </c>
       <c r="J22" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
@@ -5430,7 +5430,7 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O22" t="n">
         <v>1.0</v>
@@ -5463,10 +5463,10 @@
         <v>7.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>38.9</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="23">
@@ -5474,13 +5474,13 @@
         <v>185</v>
       </c>
       <c r="B23" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
         <v>271</v>
@@ -5498,7 +5498,7 @@
         <v>335</v>
       </c>
       <c r="J23" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
@@ -5510,7 +5510,7 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="O23" t="n">
         <v>5.0</v>
@@ -5522,10 +5522,10 @@
         <v>9.0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -5537,7 +5537,7 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="X23" t="n">
         <v>10.0</v>
@@ -5554,16 +5554,16 @@
         <v>186</v>
       </c>
       <c r="B24" t="n">
-        <v>754.0</v>
+        <v>476.0</v>
       </c>
       <c r="C24" t="s">
         <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
@@ -5575,10 +5575,10 @@
         <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J24" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5590,22 +5590,22 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>10.0</v>
       </c>
-      <c r="O24" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5.0</v>
-      </c>
       <c r="R24" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="S24" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -5617,16 +5617,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="X24" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>31.3</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="25">
@@ -5634,16 +5634,16 @@
         <v>187</v>
       </c>
       <c r="B25" t="n">
-        <v>837.0</v>
+        <v>758.0</v>
       </c>
       <c r="C25" t="s">
         <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F25" t="s">
         <v>97</v>
@@ -5655,10 +5655,10 @@
         <v>303</v>
       </c>
       <c r="I25" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="J25" t="n">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
@@ -5670,22 +5670,22 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="O25" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="P25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.0</v>
+        <v>5.0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="S25" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -5697,16 +5697,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="X25" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>40.0</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="26">
@@ -5714,16 +5714,16 @@
         <v>188</v>
       </c>
       <c r="B26" t="n">
-        <v>1196.0</v>
+        <v>842.0</v>
       </c>
       <c r="C26" t="s">
         <v>233</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
@@ -5735,10 +5735,10 @@
         <v>304</v>
       </c>
       <c r="I26" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="J26" t="n">
-        <v>6.4</v>
+        <v>10.6</v>
       </c>
       <c r="K26" t="n">
         <v>1.0</v>
@@ -5750,22 +5750,22 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="O26" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.0</v>
+        <v>58.0</v>
       </c>
       <c r="R26" t="n">
         <v>4.0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -5777,16 +5777,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="X26" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>37.5</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="27">
@@ -5794,16 +5794,16 @@
         <v>189</v>
       </c>
       <c r="B27" t="n">
-        <v>1294.0</v>
+        <v>1203.0</v>
       </c>
       <c r="C27" t="s">
         <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F27" t="s">
         <v>97</v>
@@ -5815,10 +5815,10 @@
         <v>305</v>
       </c>
       <c r="I27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J27" t="n">
-        <v>9.3</v>
+        <v>6.4</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
@@ -5830,22 +5830,22 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R27" t="n">
         <v>4.0</v>
       </c>
-      <c r="O27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>12.0</v>
-      </c>
       <c r="S27" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T27" t="n">
         <v>0.0</v>
@@ -5854,19 +5854,19 @@
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="X27" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>57.1</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="28">
@@ -5874,16 +5874,16 @@
         <v>190</v>
       </c>
       <c r="B28" t="n">
-        <v>1934.0</v>
+        <v>1302.0</v>
       </c>
       <c r="C28" t="s">
         <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F28" t="s">
         <v>97</v>
@@ -5895,10 +5895,10 @@
         <v>306</v>
       </c>
       <c r="I28" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>10.3</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -5910,7 +5910,7 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O28" t="n">
         <v>5.0</v>
@@ -5919,13 +5919,13 @@
         <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -5934,19 +5934,19 @@
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W28" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>25.0</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="29">
@@ -5954,19 +5954,19 @@
         <v>191</v>
       </c>
       <c r="B29" t="n">
-        <v>130.0</v>
+        <v>1947.0</v>
       </c>
       <c r="C29" t="s">
         <v>236</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
         <v>279</v>
@@ -5975,13 +5975,13 @@
         <v>307</v>
       </c>
       <c r="I29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -5990,16 +5990,16 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="R29" t="n">
         <v>2.0</v>
@@ -6017,16 +6017,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>33.3</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -6034,16 +6034,16 @@
         <v>192</v>
       </c>
       <c r="B30" t="n">
-        <v>524.0</v>
+        <v>130.0</v>
       </c>
       <c r="C30" t="s">
         <v>237</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
@@ -6058,7 +6058,7 @@
         <v>329</v>
       </c>
       <c r="J30" t="n">
-        <v>8.2</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -6070,23 +6070,23 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O30" t="n">
         <v>4.0</v>
       </c>
-      <c r="O30" t="n">
-        <v>9.0</v>
-      </c>
       <c r="P30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R30" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q30" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>3.0</v>
       </c>
-      <c r="S30" t="n">
-        <v>7.0</v>
-      </c>
       <c r="T30" t="n">
         <v>0.0</v>
       </c>
@@ -6097,16 +6097,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="X30" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>83.3</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="31">
@@ -6114,16 +6114,16 @@
         <v>193</v>
       </c>
       <c r="B31" t="n">
-        <v>599.0</v>
+        <v>526.0</v>
       </c>
       <c r="C31" t="s">
         <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -6135,10 +6135,10 @@
         <v>309</v>
       </c>
       <c r="I31" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J31" t="n">
-        <v>1.3</v>
+        <v>9.0</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -6150,22 +6150,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.0</v>
+        <v>63.0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -6177,16 +6177,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>55.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="32">
@@ -6194,16 +6194,16 @@
         <v>194</v>
       </c>
       <c r="B32" t="n">
-        <v>836.0</v>
+        <v>602.0</v>
       </c>
       <c r="C32" t="s">
         <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F32" t="s">
         <v>94</v>
@@ -6215,10 +6215,10 @@
         <v>310</v>
       </c>
       <c r="I32" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J32" t="n">
-        <v>8.0</v>
+        <v>1.3</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -6230,7 +6230,7 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
@@ -6239,7 +6239,7 @@
         <v>0.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R32" t="n">
         <v>0.0</v>
@@ -6257,16 +6257,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>100.0</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="33">
@@ -6274,16 +6274,16 @@
         <v>195</v>
       </c>
       <c r="B33" t="n">
-        <v>1157.0</v>
+        <v>841.0</v>
       </c>
       <c r="C33" t="s">
         <v>240</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
@@ -6298,34 +6298,34 @@
         <v>332</v>
       </c>
       <c r="J33" t="n">
-        <v>2.9</v>
+        <v>9.0</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" t="n">
         <v>0.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="S33" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -6337,16 +6337,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="X33" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>33.3</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="34">
@@ -6354,16 +6354,16 @@
         <v>196</v>
       </c>
       <c r="B34" t="n">
-        <v>1232.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C34" t="s">
         <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
@@ -6375,22 +6375,22 @@
         <v>312</v>
       </c>
       <c r="I34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M34" t="n">
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="O34" t="n">
         <v>1.0</v>
@@ -6399,13 +6399,13 @@
         <v>0.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -6417,16 +6417,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z34" t="e">
-        <v>#N/A</v>
+        <v>4.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35">
@@ -6434,16 +6434,16 @@
         <v>197</v>
       </c>
       <c r="B35" t="n">
-        <v>1721.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C35" t="s">
         <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -6455,10 +6455,10 @@
         <v>313</v>
       </c>
       <c r="I35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J35" t="n">
-        <v>12.0</v>
+        <v>0.2</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -6470,43 +6470,43 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="O35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
         <v>2.0</v>
       </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>34.0</v>
-      </c>
       <c r="X35" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>64.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z35" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36">
@@ -6514,16 +6514,16 @@
         <v>198</v>
       </c>
       <c r="B36" t="n">
-        <v>1790.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C36" t="s">
         <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
         <v>94</v>
@@ -6535,10 +6535,10 @@
         <v>314</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -6550,22 +6550,22 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="T36" t="n">
         <v>0.0</v>
@@ -6577,16 +6577,16 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z36" t="e">
-        <v>#N/A</v>
+        <v>29.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>64.6</v>
       </c>
     </row>
     <row r="37">
@@ -6594,16 +6594,16 @@
         <v>199</v>
       </c>
       <c r="B37" t="n">
-        <v>1857.0</v>
+        <v>1801.0</v>
       </c>
       <c r="C37" t="s">
         <v>244</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
@@ -6615,10 +6615,10 @@
         <v>315</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J37" t="n">
-        <v>5.5</v>
+        <v>4.0</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6630,22 +6630,22 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="S37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -6657,16 +6657,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="X37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38">
@@ -6674,19 +6674,19 @@
         <v>200</v>
       </c>
       <c r="B38" t="n">
-        <v>154.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C38" t="s">
         <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
         <v>279</v>
@@ -6695,10 +6695,10 @@
         <v>316</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J38" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -6710,43 +6710,43 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O38" t="n">
         <v>3.0</v>
       </c>
-      <c r="O38" t="n">
-        <v>5.0</v>
-      </c>
       <c r="P38" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>2.0</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Z38" t="n">
-        <v>63.6</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="39">
@@ -6754,16 +6754,16 @@
         <v>201</v>
       </c>
       <c r="B39" t="n">
-        <v>475.0</v>
+        <v>155.0</v>
       </c>
       <c r="C39" t="s">
         <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
@@ -6775,10 +6775,10 @@
         <v>317</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6790,43 +6790,43 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W39" t="n">
         <v>6.0</v>
       </c>
-      <c r="O39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>18.0</v>
-      </c>
       <c r="X39" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y39" t="n">
         <v>4.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>20.0</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="40">
@@ -6834,13 +6834,13 @@
         <v>202</v>
       </c>
       <c r="B40" t="n">
-        <v>1176.0</v>
+        <v>1182.0</v>
       </c>
       <c r="C40" t="s">
         <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E40" t="s">
         <v>271</v>
@@ -6855,7 +6855,7 @@
         <v>318</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J40" t="n">
         <v>0.1</v>
@@ -6914,13 +6914,13 @@
         <v>203</v>
       </c>
       <c r="B41" t="n">
-        <v>1201.0</v>
+        <v>1208.0</v>
       </c>
       <c r="C41" t="s">
         <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
         <v>278</v>
@@ -6935,7 +6935,7 @@
         <v>319</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J41" t="n">
         <v>7.0</v>
@@ -6994,13 +6994,13 @@
         <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>1422.0</v>
+        <v>1432.0</v>
       </c>
       <c r="C42" t="s">
         <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
         <v>272</v>
@@ -7018,7 +7018,7 @@
         <v>339</v>
       </c>
       <c r="J42" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -7030,7 +7030,7 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O42" t="n">
         <v>1.0</v>
@@ -7039,13 +7039,13 @@
         <v>0.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="R42" t="n">
         <v>6.0</v>
       </c>
       <c r="S42" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="T42" t="n">
         <v>0.0</v>
@@ -7057,7 +7057,7 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="X42" t="n">
         <v>6.0</v>
@@ -7074,7 +7074,7 @@
         <v>205</v>
       </c>
       <c r="B43" t="n">
-        <v>1551.0</v>
+        <v>1562.0</v>
       </c>
       <c r="C43" t="s">
         <v>250</v>
@@ -7095,10 +7095,10 @@
         <v>321</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J43" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -7137,7 +7137,7 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="X43" t="n">
         <v>0.0</v>
@@ -7154,13 +7154,13 @@
         <v>206</v>
       </c>
       <c r="B44" t="n">
-        <v>1765.0</v>
+        <v>1776.0</v>
       </c>
       <c r="C44" t="s">
         <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E44" t="s">
         <v>278</v>
@@ -7178,7 +7178,7 @@
         <v>325</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -7190,22 +7190,22 @@
         <v>0.0</v>
       </c>
       <c r="N44" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O44" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="P44" t="n">
         <v>4.0</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="R44" t="n">
         <v>1.0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T44" t="n">
         <v>0.0</v>
@@ -7217,16 +7217,16 @@
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="X44" t="n">
         <v>3.0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z44" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="45">
@@ -7234,7 +7234,7 @@
         <v>207</v>
       </c>
       <c r="B45" t="n">
-        <v>2028.0</v>
+        <v>2042.0</v>
       </c>
       <c r="C45" t="s">
         <v>252</v>
@@ -7255,10 +7255,10 @@
         <v>323</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J45" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -7276,7 +7276,7 @@
         <v>6.0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -7297,16 +7297,16 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="X45" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>67.2</v>
+        <v>66.1</v>
       </c>
     </row>
     <row r="46">
@@ -7314,7 +7314,7 @@
         <v>208</v>
       </c>
       <c r="B46" t="n">
-        <v>2224.0</v>
+        <v>2239.0</v>
       </c>
       <c r="C46" t="s">
         <v>253</v>
@@ -7338,7 +7338,7 @@
         <v>338</v>
       </c>
       <c r="J46" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -7350,7 +7350,7 @@
         <v>0.0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O46" t="n">
         <v>2.0</v>
@@ -7365,7 +7365,7 @@
         <v>4.0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T46" t="n">
         <v>0.0</v>
@@ -7377,16 +7377,16 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="X46" t="n">
         <v>19.0</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z46" t="n">
-        <v>79.2</v>
+        <v>73.1</v>
       </c>
     </row>
   </sheetData>
@@ -7506,19 +7506,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B2" t="n">
-        <v>2028.0</v>
+        <v>80.0</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -7527,31 +7527,31 @@
         <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J2" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="L2" t="n">
-        <v>589.0</v>
+        <v>760.0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="N2" t="n">
         <v>4.0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q2" t="n">
         <v>4.0</v>
@@ -7563,66 +7563,66 @@
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="AD2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B3" t="n">
-        <v>80.0</v>
+        <v>2042.0</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>97</v>
@@ -7631,35 +7631,35 @@
         <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J3" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L3" t="n">
-        <v>699.0</v>
+        <v>618.0</v>
       </c>
       <c r="M3" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="N3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R3" t="n">
         <v>0.0</v>
       </c>
@@ -7667,66 +7667,66 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.52</v>
+        <v>0.87</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.52</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" t="n">
-        <v>837.0</v>
+        <v>842.0</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
         <v>97</v>
@@ -7735,22 +7735,22 @@
         <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
         <v>336</v>
       </c>
       <c r="J4" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L4" t="n">
-        <v>890.0</v>
+        <v>951.0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="N4" t="n">
         <v>3.0</v>
@@ -7792,28 +7792,28 @@
         <v>22.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -7821,16 +7821,16 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>711.0</v>
+        <v>715.0</v>
       </c>
       <c r="C5" t="s">
         <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -7842,7 +7842,7 @@
         <v>294</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J5" t="n">
         <v>6.0</v>
@@ -7925,7 +7925,7 @@
         <v>180</v>
       </c>
       <c r="B6" t="n">
-        <v>1467.0</v>
+        <v>1477.0</v>
       </c>
       <c r="C6" t="s">
         <v>225</v>
@@ -7946,19 +7946,19 @@
         <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L6" t="n">
-        <v>675.0</v>
+        <v>765.0</v>
       </c>
       <c r="M6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N6" t="n">
         <v>2.0</v>
@@ -7985,43 +7985,43 @@
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.8</v>
+        <v>3.0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.8</v>
+        <v>3.0</v>
       </c>
       <c r="X6" t="n">
         <v>0.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -8029,16 +8029,16 @@
         <v>182</v>
       </c>
       <c r="B7" t="n">
-        <v>1779.0</v>
+        <v>1790.0</v>
       </c>
       <c r="C7" t="s">
         <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
@@ -8053,16 +8053,16 @@
         <v>334</v>
       </c>
       <c r="J7" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K7" t="n">
         <v>8.0</v>
       </c>
       <c r="L7" t="n">
-        <v>668.0</v>
+        <v>684.0</v>
       </c>
       <c r="M7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -8101,28 +8101,28 @@
         <v>2.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AH7" t="n">
         <v>0.12</v>
@@ -8130,19 +8130,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B8" t="n">
-        <v>475.0</v>
+        <v>476.0</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
         <v>97</v>
@@ -8151,22 +8151,22 @@
         <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K8" t="n">
         <v>1.0</v>
       </c>
       <c r="L8" t="n">
-        <v>293.0</v>
+        <v>322.0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -8187,7 +8187,7 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
@@ -8199,7 +8199,7 @@
         <v>3.2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y8" t="n">
         <v>3.4</v>
@@ -8208,39 +8208,39 @@
         <v>11.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB8" t="n">
         <v>36.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B9" t="n">
-        <v>754.0</v>
+        <v>758.0</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>264</v>
@@ -8255,22 +8255,22 @@
         <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
         <v>325</v>
       </c>
       <c r="J9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K9" t="n">
         <v>7.0</v>
       </c>
       <c r="L9" t="n">
-        <v>594.0</v>
+        <v>599.0</v>
       </c>
       <c r="M9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="N9" t="n">
         <v>2.0</v>
@@ -8297,19 +8297,19 @@
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="X9" t="n">
         <v>0.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA9" t="n">
         <v>16.0</v>
@@ -8333,7 +8333,7 @@
         <v>0.3</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
@@ -8341,13 +8341,13 @@
         <v>203</v>
       </c>
       <c r="B10" t="n">
-        <v>1201.0</v>
+        <v>1208.0</v>
       </c>
       <c r="C10" t="s">
         <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
         <v>278</v>
@@ -8362,7 +8362,7 @@
         <v>319</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J10" t="n">
         <v>8.0</v>
@@ -8442,16 +8442,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="n">
-        <v>1153.0</v>
+        <v>1159.0</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>274</v>
@@ -8463,22 +8463,22 @@
         <v>279</v>
       </c>
       <c r="H11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L11" t="n">
-        <v>575.0</v>
+        <v>643.0</v>
       </c>
       <c r="M11" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -8523,42 +8523,42 @@
         <v>5.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="n">
-        <v>1710.0</v>
+        <v>1721.0</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -8567,22 +8567,22 @@
         <v>279</v>
       </c>
       <c r="H12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K12" t="n">
         <v>1.0</v>
       </c>
       <c r="L12" t="n">
-        <v>159.0</v>
+        <v>181.0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="N12" t="n">
         <v>1.0</v>
@@ -8609,16 +8609,16 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z12" t="n">
         <v>0.0</v>
@@ -8627,16 +8627,16 @@
         <v>4.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
@@ -8645,21 +8645,21 @@
         <v>0.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" t="n">
-        <v>1721.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
         <v>272</v>
@@ -8671,22 +8671,22 @@
         <v>279</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I13" t="s">
         <v>336</v>
       </c>
       <c r="J13" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L13" t="e">
         <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -8722,16 +8722,16 @@
         <v>0.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC13" t="n">
         <v>0.08</v>
@@ -8749,21 +8749,21 @@
         <v>0.08</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="n">
-        <v>1098.0</v>
+        <v>1103.0</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
         <v>271</v>
@@ -8775,22 +8775,22 @@
         <v>279</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J14" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L14" t="n">
-        <v>876.0</v>
+        <v>966.0</v>
       </c>
       <c r="M14" t="n">
-        <v>9.7</v>
+        <v>10.7</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
@@ -8823,51 +8823,51 @@
         <v>1.0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.9</v>
+        <v>2.0</v>
       </c>
       <c r="Z14" t="n">
         <v>9.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>46.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" t="n">
-        <v>1934.0</v>
+        <v>1947.0</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
         <v>276</v>
@@ -8879,31 +8879,31 @@
         <v>279</v>
       </c>
       <c r="H15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I15" t="s">
         <v>333</v>
       </c>
       <c r="J15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O15" t="n">
         <v>2.0</v>
       </c>
-      <c r="L15" t="n">
-        <v>230.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q15" t="n">
         <v>1.0</v>
@@ -8927,48 +8927,48 @@
         <v>0.2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA15" t="n">
         <v>8.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" t="n">
         <v>130.0</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
         <v>267</v>
@@ -8983,10 +8983,10 @@
         <v>279</v>
       </c>
       <c r="H16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J16" t="n">
         <v>6.0</v>
@@ -9066,13 +9066,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="n">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>254</v>
@@ -9087,22 +9087,22 @@
         <v>279</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I17" t="s">
         <v>325</v>
       </c>
       <c r="J17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
       </c>
       <c r="L17" t="n">
-        <v>116.0</v>
+        <v>138.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -9129,10 +9129,10 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X17" t="n">
         <v>0.0</v>
@@ -9147,7 +9147,7 @@
         <v>1.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
@@ -9165,21 +9165,21 @@
         <v>0.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
         <v>272</v>
@@ -9191,10 +9191,10 @@
         <v>279</v>
       </c>
       <c r="H18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J18" t="n">
         <v>9.0</v>
@@ -9277,7 +9277,7 @@
         <v>164</v>
       </c>
       <c r="B19" t="n">
-        <v>482.0</v>
+        <v>483.0</v>
       </c>
       <c r="C19" t="s">
         <v>209</v>
@@ -9301,16 +9301,16 @@
         <v>325</v>
       </c>
       <c r="J19" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K19" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>919.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -9331,7 +9331,7 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U19" t="n">
         <v>1.0</v>
@@ -9343,54 +9343,54 @@
         <v>0.9</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z19" t="n">
         <v>8.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF19" t="n">
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" t="n">
-        <v>524.0</v>
+        <v>526.0</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -9399,23 +9399,23 @@
         <v>279</v>
       </c>
       <c r="H20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J20" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>809.0</v>
+      </c>
+      <c r="M20" t="n">
         <v>9.0</v>
       </c>
-      <c r="L20" t="n">
-        <v>741.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8.2</v>
-      </c>
       <c r="N20" t="n">
         <v>0.0</v>
       </c>
@@ -9441,25 +9441,25 @@
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
@@ -9482,16 +9482,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" t="n">
-        <v>599.0</v>
+        <v>602.0</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
         <v>274</v>
@@ -9503,7 +9503,7 @@
         <v>279</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I21" t="s">
         <v>337</v>
@@ -9586,13 +9586,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" t="n">
-        <v>836.0</v>
+        <v>841.0</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
         <v>263</v>
@@ -9607,22 +9607,22 @@
         <v>279</v>
       </c>
       <c r="H22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I22" t="s">
         <v>332</v>
       </c>
       <c r="J22" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L22" t="n">
-        <v>720.0</v>
+        <v>810.0</v>
       </c>
       <c r="M22" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -9690,16 +9690,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" t="n">
-        <v>1157.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
         <v>272</v>
@@ -9711,7 +9711,7 @@
         <v>279</v>
       </c>
       <c r="H23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I23" t="s">
         <v>332</v>
@@ -9794,16 +9794,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" t="n">
-        <v>1232.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E24" t="s">
         <v>271</v>
@@ -9815,22 +9815,22 @@
         <v>279</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I24" t="s">
         <v>335</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -9869,13 +9869,13 @@
         <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA24" t="n">
         <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
@@ -9901,13 +9901,13 @@
         <v>179</v>
       </c>
       <c r="B25" t="n">
-        <v>1249.0</v>
+        <v>1257.0</v>
       </c>
       <c r="C25" t="s">
         <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
         <v>272</v>
@@ -9925,16 +9925,16 @@
         <v>332</v>
       </c>
       <c r="J25" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K25" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L25" t="n">
-        <v>752.0</v>
+        <v>826.0</v>
       </c>
       <c r="M25" t="n">
-        <v>8.4</v>
+        <v>9.2</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -9973,13 +9973,13 @@
         <v>1.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
@@ -10002,16 +10002,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="n">
-        <v>1324.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
         <v>271</v>
@@ -10023,10 +10023,10 @@
         <v>279</v>
       </c>
       <c r="H26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J26" t="n">
         <v>11.0</v>
@@ -10106,16 +10106,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="n">
-        <v>1420.0</v>
+        <v>1430.0</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -10127,22 +10127,22 @@
         <v>279</v>
       </c>
       <c r="H27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J27" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K27" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L27" t="n">
-        <v>818.0</v>
+        <v>908.0</v>
       </c>
       <c r="M27" t="n">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -10181,13 +10181,13 @@
         <v>1.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
@@ -10210,16 +10210,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B28" t="n">
-        <v>1436.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
         <v>271</v>
@@ -10231,22 +10231,22 @@
         <v>279</v>
       </c>
       <c r="H28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J28" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L28" t="n">
-        <v>607.0</v>
+        <v>689.0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -10285,13 +10285,13 @@
         <v>0.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
@@ -10309,7 +10309,7 @@
         <v>0.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
@@ -10317,16 +10317,16 @@
         <v>181</v>
       </c>
       <c r="B29" t="n">
-        <v>1489.0</v>
+        <v>1499.0</v>
       </c>
       <c r="C29" t="s">
         <v>226</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
         <v>94</v>
@@ -10341,16 +10341,16 @@
         <v>333</v>
       </c>
       <c r="J29" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K29" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L29" t="n">
-        <v>550.0</v>
+        <v>624.0</v>
       </c>
       <c r="M29" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -10389,13 +10389,13 @@
         <v>1.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -10413,21 +10413,21 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B30" t="n">
-        <v>1790.0</v>
+        <v>1801.0</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
         <v>277</v>
@@ -10439,7 +10439,7 @@
         <v>279</v>
       </c>
       <c r="H30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I30" t="s">
         <v>325</v>
@@ -10522,16 +10522,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B31" t="n">
-        <v>1857.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -10543,22 +10543,22 @@
         <v>279</v>
       </c>
       <c r="H31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I31" t="s">
         <v>332</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K31" t="n">
         <v>4.0</v>
       </c>
       <c r="L31" t="n">
-        <v>497.0</v>
+        <v>513.0</v>
       </c>
       <c r="M31" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -10600,10 +10600,10 @@
         <v>3.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
@@ -10629,7 +10629,7 @@
         <v>183</v>
       </c>
       <c r="B32" t="n">
-        <v>2129.0</v>
+        <v>2144.0</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -10650,19 +10650,19 @@
         <v>299</v>
       </c>
       <c r="I32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J32" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K32" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L32" t="n">
-        <v>700.0</v>
+        <v>790.0</v>
       </c>
       <c r="M32" t="n">
-        <v>7.8</v>
+        <v>8.8</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -10689,25 +10689,25 @@
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X32" t="n">
         <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -10730,16 +10730,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B33" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
         <v>272</v>
@@ -10751,7 +10751,7 @@
         <v>279</v>
       </c>
       <c r="H33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I33" t="s">
         <v>338</v>
@@ -10837,13 +10837,13 @@
         <v>185</v>
       </c>
       <c r="B34" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="C34" t="s">
         <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
         <v>271</v>
@@ -10861,16 +10861,16 @@
         <v>335</v>
       </c>
       <c r="J34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K34" t="n">
         <v>7.0</v>
       </c>
-      <c r="K34" t="n">
-        <v>6.0</v>
-      </c>
       <c r="L34" t="n">
-        <v>540.0</v>
+        <v>630.0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -10903,51 +10903,51 @@
         <v>0.4</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Y34" t="n">
         <v>1.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AF34" t="n">
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35" t="n">
-        <v>538.0</v>
+        <v>540.0</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
         <v>271</v>
@@ -10959,22 +10959,22 @@
         <v>279</v>
       </c>
       <c r="H35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J35" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K35" t="n">
         <v>5.0</v>
       </c>
       <c r="L35" t="n">
-        <v>532.0</v>
+        <v>561.0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -11013,10 +11013,10 @@
         <v>2.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="AB35" t="n">
         <v>28.0</v>
@@ -11025,16 +11025,16 @@
         <v>0.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AF35" t="n">
         <v>0.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AH35" t="n">
         <v>0.02</v>
@@ -11042,16 +11042,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" t="n">
-        <v>752.0</v>
+        <v>756.0</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
         <v>272</v>
@@ -11063,10 +11063,10 @@
         <v>279</v>
       </c>
       <c r="H36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J36" t="n">
         <v>5.0</v>
@@ -11146,16 +11146,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" t="n">
-        <v>1165.0</v>
+        <v>1171.0</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
         <v>272</v>
@@ -11167,7 +11167,7 @@
         <v>279</v>
       </c>
       <c r="H37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I37" t="s">
         <v>331</v>
@@ -11253,13 +11253,13 @@
         <v>202</v>
       </c>
       <c r="B38" t="n">
-        <v>1176.0</v>
+        <v>1182.0</v>
       </c>
       <c r="C38" t="s">
         <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
         <v>271</v>
@@ -11274,7 +11274,7 @@
         <v>318</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J38" t="n">
         <v>1.0</v>
@@ -11354,16 +11354,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" t="n">
-        <v>1179.0</v>
+        <v>1185.0</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E39" t="s">
         <v>272</v>
@@ -11375,22 +11375,22 @@
         <v>279</v>
       </c>
       <c r="H39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0</v>
+        <v>305.0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -11411,7 +11411,7 @@
         <v>0.0</v>
       </c>
       <c r="T39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U39" t="n">
         <v>0.0</v>
@@ -11453,18 +11453,18 @@
         <v>0.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40" t="n">
-        <v>1196.0</v>
+        <v>1203.0</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
         <v>265</v>
@@ -11479,10 +11479,10 @@
         <v>279</v>
       </c>
       <c r="H40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J40" t="n">
         <v>10.0</v>
@@ -11562,16 +11562,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B41" t="n">
-        <v>1278.0</v>
+        <v>1286.0</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
         <v>272</v>
@@ -11583,22 +11583,22 @@
         <v>279</v>
       </c>
       <c r="H41" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J41" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K41" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L41" t="n">
-        <v>512.0</v>
+        <v>602.0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -11619,7 +11619,7 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
@@ -11637,10 +11637,10 @@
         <v>0.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB41" t="n">
         <v>6.0</v>
@@ -11666,13 +11666,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B42" t="n">
-        <v>1294.0</v>
+        <v>1302.0</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
         <v>266</v>
@@ -11687,22 +11687,22 @@
         <v>279</v>
       </c>
       <c r="H42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J42" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L42" t="n">
-        <v>838.0</v>
+        <v>928.0</v>
       </c>
       <c r="M42" t="n">
-        <v>9.3</v>
+        <v>10.3</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -11744,7 +11744,7 @@
         <v>0.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB42" t="n">
         <v>0.0</v>
@@ -11773,13 +11773,13 @@
         <v>204</v>
       </c>
       <c r="B43" t="n">
-        <v>1422.0</v>
+        <v>1432.0</v>
       </c>
       <c r="C43" t="s">
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E43" t="s">
         <v>272</v>
@@ -11797,16 +11797,16 @@
         <v>339</v>
       </c>
       <c r="J43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K43" t="n">
         <v>9.0</v>
       </c>
-      <c r="K43" t="n">
-        <v>8.0</v>
-      </c>
       <c r="L43" t="n">
-        <v>615.0</v>
+        <v>705.0</v>
       </c>
       <c r="M43" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -11845,31 +11845,31 @@
         <v>1.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AF43" t="n">
         <v>0.0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44">
@@ -11877,7 +11877,7 @@
         <v>205</v>
       </c>
       <c r="B44" t="n">
-        <v>1551.0</v>
+        <v>1562.0</v>
       </c>
       <c r="C44" t="s">
         <v>250</v>
@@ -11898,19 +11898,19 @@
         <v>321</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J44" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>990.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M44" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -11981,13 +11981,13 @@
         <v>206</v>
       </c>
       <c r="B45" t="n">
-        <v>1765.0</v>
+        <v>1776.0</v>
       </c>
       <c r="C45" t="s">
         <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
         <v>278</v>
@@ -12005,16 +12005,16 @@
         <v>325</v>
       </c>
       <c r="J45" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L45" t="n">
-        <v>298.0</v>
+        <v>383.0</v>
       </c>
       <c r="M45" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -12041,25 +12041,25 @@
         <v>0.0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="W45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X45" t="n">
         <v>0.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="Z45" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB45" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="AC45" t="n">
         <v>0.0</v>
@@ -12077,7 +12077,7 @@
         <v>0.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="46">
@@ -12085,7 +12085,7 @@
         <v>208</v>
       </c>
       <c r="B46" t="n">
-        <v>2224.0</v>
+        <v>2239.0</v>
       </c>
       <c r="C46" t="s">
         <v>253</v>
@@ -12109,16 +12109,16 @@
         <v>338</v>
       </c>
       <c r="J46" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K46" t="n">
         <v>6.0</v>
       </c>
       <c r="L46" t="n">
-        <v>502.0</v>
+        <v>530.0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -12160,7 +12160,7 @@
         <v>1.0</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB46" t="n">
         <v>1.0</v>
@@ -12169,19 +12169,19 @@
         <v>0.0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AF46" t="n">
         <v>0.0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
